--- a/FacebookPosts2023.xlsx
+++ b/FacebookPosts2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/Desktop/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA846F7F-53F6-234F-977D-F4AB81EC2F39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A4E4EC-A6EA-D645-B2C9-16394D8AA7B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{BC3A2024-34FC-4B43-AE71-3047D692B8F0}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Languages</t>
   </si>
   <si>
-    <t>Posted</t>
-  </si>
-  <si>
     <t>Audience Targeting</t>
   </si>
   <si>
@@ -124,12 +121,18 @@
   </si>
   <si>
     <t>Lifetime Video length</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -167,9 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A2CAB3-1EF8-5346-8880-6DF46A3ABE9D}">
-  <dimension ref="A1:AH1"/>
+  <dimension ref="A1:AH223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AH1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,89 +516,755 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G223" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
